--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>19.4924185594762</v>
+        <v>71.12908646644733</v>
       </c>
       <c r="R2">
-        <v>19.4924185594762</v>
+        <v>640.161778198026</v>
       </c>
       <c r="S2">
-        <v>0.01274279563969933</v>
+        <v>0.02928966106120285</v>
       </c>
       <c r="T2">
-        <v>0.01274279563969933</v>
+        <v>0.02928966106120284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>56.65620725681153</v>
+        <v>81.57628597170888</v>
       </c>
       <c r="R3">
-        <v>56.65620725681153</v>
+        <v>734.18657374538</v>
       </c>
       <c r="S3">
-        <v>0.0370379113598</v>
+        <v>0.03359162735585249</v>
       </c>
       <c r="T3">
-        <v>0.0370379113598</v>
+        <v>0.03359162735585249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>3.113493258349993</v>
+        <v>5.477796766107557</v>
       </c>
       <c r="R4">
-        <v>3.113493258349993</v>
+        <v>49.30017089496801</v>
       </c>
       <c r="S4">
-        <v>0.002035386639973819</v>
+        <v>0.002255656843239884</v>
       </c>
       <c r="T4">
-        <v>0.002035386639973819</v>
+        <v>0.002255656843239884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>5.149207601531951</v>
+        <v>9.062451869694222</v>
       </c>
       <c r="R5">
-        <v>5.149207601531951</v>
+        <v>81.562066827248</v>
       </c>
       <c r="S5">
-        <v>0.003366195937794968</v>
+        <v>0.003731752463487887</v>
       </c>
       <c r="T5">
-        <v>0.003366195937794968</v>
+        <v>0.003731752463487887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>174.9270137893911</v>
+        <v>460.2928106070677</v>
       </c>
       <c r="R6">
-        <v>174.9270137893911</v>
+        <v>4142.63529546361</v>
       </c>
       <c r="S6">
-        <v>0.1143551879814025</v>
+        <v>0.189540187866029</v>
       </c>
       <c r="T6">
-        <v>0.1143551879814025</v>
+        <v>0.189540187866029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>508.4387613485145</v>
+        <v>527.8990609069078</v>
       </c>
       <c r="R7">
-        <v>508.4387613485145</v>
+        <v>4751.091548162171</v>
       </c>
       <c r="S7">
-        <v>0.3323821110960221</v>
+        <v>0.2173792092182185</v>
       </c>
       <c r="T7">
-        <v>0.3323821110960221</v>
+        <v>0.2173792092182185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>27.94081588566099</v>
+        <v>35.44809296257912</v>
       </c>
       <c r="R8">
-        <v>27.94081588566099</v>
+        <v>319.032836663212</v>
       </c>
       <c r="S8">
-        <v>0.01826577372895333</v>
+        <v>0.01459687843214065</v>
       </c>
       <c r="T8">
-        <v>0.01826577372895333</v>
+        <v>0.01459687843214065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>46.2095304576623</v>
+        <v>58.64522728069245</v>
       </c>
       <c r="R9">
-        <v>46.2095304576623</v>
+        <v>527.8070455262321</v>
       </c>
       <c r="S9">
-        <v>0.03020859630280154</v>
+        <v>0.0241490354402197</v>
       </c>
       <c r="T9">
-        <v>0.03020859630280154</v>
+        <v>0.0241490354402197</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>106.9208857841438</v>
+        <v>331.269292833815</v>
       </c>
       <c r="R10">
-        <v>106.9208857841438</v>
+        <v>2981.423635504335</v>
       </c>
       <c r="S10">
-        <v>0.06989748311661488</v>
+        <v>0.1364106554589835</v>
       </c>
       <c r="T10">
-        <v>0.06989748311661488</v>
+        <v>0.1364106554589835</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>310.7737424468228</v>
+        <v>379.9250054842833</v>
       </c>
       <c r="R11">
-        <v>310.7737424468228</v>
+        <v>3419.32504935855</v>
       </c>
       <c r="S11">
-        <v>0.2031623873713306</v>
+        <v>0.156446190892097</v>
       </c>
       <c r="T11">
-        <v>0.2031623873713306</v>
+        <v>0.156446190892097</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>17.07830436997794</v>
+        <v>25.51172735575334</v>
       </c>
       <c r="R12">
-        <v>17.07830436997794</v>
+        <v>229.60554620178</v>
       </c>
       <c r="S12">
-        <v>0.01116461468314894</v>
+        <v>0.01050526422391649</v>
       </c>
       <c r="T12">
-        <v>0.01116461468314894</v>
+        <v>0.01050526422391649</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N13">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O13">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P13">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q13">
-        <v>28.24471658877806</v>
+        <v>42.20653141145333</v>
       </c>
       <c r="R13">
-        <v>28.24471658877806</v>
+        <v>379.85878270308</v>
       </c>
       <c r="S13">
-        <v>0.01846444299838061</v>
+        <v>0.01737988017312187</v>
       </c>
       <c r="T13">
-        <v>0.01846444299838061</v>
+        <v>0.01737988017312187</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H14">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N14">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q14">
-        <v>51.89653935877976</v>
+        <v>170.1305247086503</v>
       </c>
       <c r="R14">
-        <v>51.89653935877976</v>
+        <v>1531.174722377853</v>
       </c>
       <c r="S14">
-        <v>0.03392636954920356</v>
+        <v>0.0700566484462239</v>
       </c>
       <c r="T14">
-        <v>0.03392636954920356</v>
+        <v>0.0700566484462239</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H15">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q15">
-        <v>150.8412658414264</v>
+        <v>195.1187204224322</v>
       </c>
       <c r="R15">
-        <v>150.8412658414264</v>
+        <v>1756.06848380189</v>
       </c>
       <c r="S15">
-        <v>0.0986095911487809</v>
+        <v>0.08034633188441791</v>
       </c>
       <c r="T15">
-        <v>0.0986095911487809</v>
+        <v>0.08034633188441791</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H16">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N16">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q16">
-        <v>8.28935234138528</v>
+        <v>13.10210048184489</v>
       </c>
       <c r="R16">
-        <v>8.28935234138528</v>
+        <v>117.918904336604</v>
       </c>
       <c r="S16">
-        <v>0.005419005473817112</v>
+        <v>0.005395206115631512</v>
       </c>
       <c r="T16">
-        <v>0.005419005473817112</v>
+        <v>0.005395206115631511</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H17">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N17">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O17">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P17">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q17">
-        <v>13.70923029094917</v>
+        <v>21.67607891977155</v>
       </c>
       <c r="R17">
-        <v>13.70923029094917</v>
+        <v>195.084710277944</v>
       </c>
       <c r="S17">
-        <v>0.008962146972275743</v>
+        <v>0.00892581412521694</v>
       </c>
       <c r="T17">
-        <v>0.008962146972275743</v>
+        <v>0.008925814125216938</v>
       </c>
     </row>
   </sheetData>
